--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\Documents\PAMGMT\economics\data\ism-manufacturing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\OneDrive\PAMGMT\Economics\data\ism-manufacturing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,12 +105,10 @@
         <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[headline-index.xlsx]Sheet1!R5C2</stp>
+        <stp>[employment.xlsx]Sheet1!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-    </main>
-    <main first="bloomberg.rtd">
       <tp>
         <v>17563</v>
         <stp/>
@@ -123,7 +121,7 @@
         <stp>Dir=V</stp>
         <stp>Per=M</stp>
         <stp>Dts=S</stp>
-        <stp>cols=2;rows=864</stp>
+        <stp>cols=2;rows=869</stp>
         <tr r="A7" s="1"/>
       </tp>
     </main>
@@ -394,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B870"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -444,7 +442,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=864")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=869")</f>
         <v>17563</v>
       </c>
       <c r="B7">
@@ -6592,7 +6590,7 @@
         <v>40939</v>
       </c>
       <c r="B775">
-        <v>52.6</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6600,7 +6598,7 @@
         <v>40968</v>
       </c>
       <c r="B776">
-        <v>52.1</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6606,7 @@
         <v>40999</v>
       </c>
       <c r="B777">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6614,7 @@
         <v>41029</v>
       </c>
       <c r="B778">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6624,7 +6622,7 @@
         <v>41060</v>
       </c>
       <c r="B779">
-        <v>53.6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -6632,7 +6630,7 @@
         <v>41090</v>
       </c>
       <c r="B780">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,7 +6638,7 @@
         <v>41121</v>
       </c>
       <c r="B781">
-        <v>52.5</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6648,7 +6646,7 @@
         <v>41152</v>
       </c>
       <c r="B782">
-        <v>51.2</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6654,7 @@
         <v>41182</v>
       </c>
       <c r="B783">
-        <v>53</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6672,7 +6670,7 @@
         <v>41243</v>
       </c>
       <c r="B785">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -6680,7 +6678,7 @@
         <v>41274</v>
       </c>
       <c r="B786">
-        <v>52.6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
@@ -6688,7 +6686,7 @@
         <v>41305</v>
       </c>
       <c r="B787">
-        <v>52.6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
@@ -6696,7 +6694,7 @@
         <v>41333</v>
       </c>
       <c r="B788">
-        <v>52.2</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6704,7 +6702,7 @@
         <v>41364</v>
       </c>
       <c r="B789">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6712,7 +6710,7 @@
         <v>41394</v>
       </c>
       <c r="B790">
-        <v>50.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6720,7 +6718,7 @@
         <v>41425</v>
       </c>
       <c r="B791">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6726,7 @@
         <v>41455</v>
       </c>
       <c r="B792">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6734,7 @@
         <v>41486</v>
       </c>
       <c r="B793">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6744,7 +6742,7 @@
         <v>41517</v>
       </c>
       <c r="B794">
-        <v>54.2</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,7 +6750,7 @@
         <v>41547</v>
       </c>
       <c r="B795">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -6768,7 +6766,7 @@
         <v>41608</v>
       </c>
       <c r="B797">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6776,7 +6774,7 @@
         <v>41639</v>
       </c>
       <c r="B798">
-        <v>52.9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +6782,7 @@
         <v>41670</v>
       </c>
       <c r="B799">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +6790,7 @@
         <v>41698</v>
       </c>
       <c r="B800">
-        <v>54</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +6798,7 @@
         <v>41729</v>
       </c>
       <c r="B801">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +6806,7 @@
         <v>41759</v>
       </c>
       <c r="B802">
-        <v>57</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6824,7 +6822,7 @@
         <v>41820</v>
       </c>
       <c r="B804">
-        <v>53.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6832,7 +6830,7 @@
         <v>41851</v>
       </c>
       <c r="B805">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -6840,7 +6838,7 @@
         <v>41882</v>
       </c>
       <c r="B806">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -6848,7 +6846,7 @@
         <v>41912</v>
       </c>
       <c r="B807">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -6856,7 +6854,7 @@
         <v>41943</v>
       </c>
       <c r="B808">
-        <v>54</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6864,7 +6862,7 @@
         <v>41973</v>
       </c>
       <c r="B809">
-        <v>54.2</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6870,7 @@
         <v>42004</v>
       </c>
       <c r="B810">
-        <v>56.7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6878,7 @@
         <v>42035</v>
       </c>
       <c r="B811">
-        <v>55</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6888,7 +6886,7 @@
         <v>42063</v>
       </c>
       <c r="B812">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
@@ -6904,7 +6902,7 @@
         <v>42124</v>
       </c>
       <c r="B814">
-        <v>50</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6920,7 +6918,7 @@
         <v>42185</v>
       </c>
       <c r="B816">
-        <v>54.8</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6936,7 +6934,7 @@
         <v>42247</v>
       </c>
       <c r="B818">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6944,7 +6942,7 @@
         <v>42277</v>
       </c>
       <c r="B819">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +6950,7 @@
         <v>42308</v>
       </c>
       <c r="B820">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6960,7 +6958,7 @@
         <v>42338</v>
       </c>
       <c r="B821">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -6968,7 +6966,7 @@
         <v>42369</v>
       </c>
       <c r="B822">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -6976,7 +6974,7 @@
         <v>42400</v>
       </c>
       <c r="B823">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,7 +6982,7 @@
         <v>42429</v>
       </c>
       <c r="B824">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -6992,7 +6990,7 @@
         <v>42460</v>
       </c>
       <c r="B825">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -7000,7 +6998,7 @@
         <v>42490</v>
       </c>
       <c r="B826">
-        <v>49.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
@@ -7016,7 +7014,7 @@
         <v>42551</v>
       </c>
       <c r="B828">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7030,7 @@
         <v>42613</v>
       </c>
       <c r="B830">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -7040,7 +7038,7 @@
         <v>42643</v>
       </c>
       <c r="B831">
-        <v>48.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7046,7 @@
         <v>42674</v>
       </c>
       <c r="B832">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -7064,7 +7062,7 @@
         <v>42735</v>
       </c>
       <c r="B834">
-        <v>53</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7072,7 +7070,7 @@
         <v>42766</v>
       </c>
       <c r="B835">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,7 +7078,7 @@
         <v>42794</v>
       </c>
       <c r="B836">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7088,7 +7086,7 @@
         <v>42825</v>
       </c>
       <c r="B837">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7094,7 @@
         <v>42855</v>
       </c>
       <c r="B838">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7104,7 +7102,7 @@
         <v>42886</v>
       </c>
       <c r="B839">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -7112,7 +7110,7 @@
         <v>42916</v>
       </c>
       <c r="B840">
-        <v>56.9</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7120,7 +7118,7 @@
         <v>42947</v>
       </c>
       <c r="B841">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -7128,7 +7126,7 @@
         <v>42978</v>
       </c>
       <c r="B842">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7136,7 +7134,7 @@
         <v>43008</v>
       </c>
       <c r="B843">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7144,7 +7142,7 @@
         <v>43039</v>
       </c>
       <c r="B844">
-        <v>59.5</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7160,7 +7158,7 @@
         <v>43100</v>
       </c>
       <c r="B846">
-        <v>58</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,7 +7166,7 @@
         <v>43131</v>
       </c>
       <c r="B847">
-        <v>55.2</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7176,7 +7174,7 @@
         <v>43159</v>
       </c>
       <c r="B848">
-        <v>59.2</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
@@ -7184,7 +7182,7 @@
         <v>43190</v>
       </c>
       <c r="B849">
-        <v>57</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -7192,7 +7190,7 @@
         <v>43220</v>
       </c>
       <c r="B850">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,7 +7198,7 @@
         <v>43251</v>
       </c>
       <c r="B851">
-        <v>56.7</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7208,7 +7206,7 @@
         <v>43281</v>
       </c>
       <c r="B852">
-        <v>56.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -7216,7 +7214,7 @@
         <v>43312</v>
       </c>
       <c r="B853">
-        <v>56.8</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7224,7 +7222,7 @@
         <v>43343</v>
       </c>
       <c r="B854">
-        <v>57.8</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7230,7 @@
         <v>43373</v>
       </c>
       <c r="B855">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,7 +7238,7 @@
         <v>43404</v>
       </c>
       <c r="B856">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -7248,7 +7246,7 @@
         <v>43434</v>
       </c>
       <c r="B857">
-        <v>57.7</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -7256,7 +7254,7 @@
         <v>43465</v>
       </c>
       <c r="B858">
-        <v>56</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7264,7 +7262,7 @@
         <v>43496</v>
       </c>
       <c r="B859">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7272,7 +7270,7 @@
         <v>43524</v>
       </c>
       <c r="B860">
-        <v>52.3</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7280,7 +7278,7 @@
         <v>43555</v>
       </c>
       <c r="B861">
-        <v>57.5</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7296,7 +7294,7 @@
         <v>43616</v>
       </c>
       <c r="B863">
-        <v>53.7</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7302,7 @@
         <v>43646</v>
       </c>
       <c r="B864">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7312,7 +7310,7 @@
         <v>43677</v>
       </c>
       <c r="B865">
-        <v>51.7</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7320,7 +7318,7 @@
         <v>43708</v>
       </c>
       <c r="B866">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +7326,7 @@
         <v>43738</v>
       </c>
       <c r="B867">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7334,7 @@
         <v>43769</v>
       </c>
       <c r="B868">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7344,7 +7342,7 @@
         <v>43799</v>
       </c>
       <c r="B869">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,7 +7350,47 @@
         <v>43830</v>
       </c>
       <c r="B870">
-        <v>45.1</v>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B871">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B872">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B873">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B874">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B875">
+        <v>32.1</v>
       </c>
     </row>
   </sheetData>
